--- a/AAII_Financials/Quarterly/DIDIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIDIY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25384000</v>
+        <v>24196800</v>
       </c>
       <c r="E8" s="3">
-        <v>6231800</v>
+        <v>5940400</v>
       </c>
       <c r="F8" s="3">
-        <v>7040400</v>
+        <v>6711100</v>
       </c>
       <c r="G8" s="3">
-        <v>6157100</v>
+        <v>5869100</v>
       </c>
       <c r="H8" s="3">
-        <v>6819500</v>
+        <v>6500500</v>
       </c>
       <c r="I8" s="3">
-        <v>6337400</v>
+        <v>6041000</v>
       </c>
       <c r="J8" s="3">
-        <v>4551300</v>
+        <v>4338400</v>
       </c>
       <c r="K8" s="3">
         <v>2989500</v>
@@ -745,25 +745,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22906700</v>
+        <v>21835400</v>
       </c>
       <c r="E9" s="3">
-        <v>5955700</v>
+        <v>5677100</v>
       </c>
       <c r="F9" s="3">
-        <v>6215200</v>
+        <v>5924500</v>
       </c>
       <c r="G9" s="3">
-        <v>5490300</v>
+        <v>5233500</v>
       </c>
       <c r="H9" s="3">
-        <v>6501300</v>
+        <v>6197200</v>
       </c>
       <c r="I9" s="3">
-        <v>5450300</v>
+        <v>5195400</v>
       </c>
       <c r="J9" s="3">
-        <v>3888300</v>
+        <v>3706500</v>
       </c>
       <c r="K9" s="3">
         <v>2534200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2477300</v>
+        <v>2361400</v>
       </c>
       <c r="E10" s="3">
-        <v>276100</v>
+        <v>263200</v>
       </c>
       <c r="F10" s="3">
-        <v>825200</v>
+        <v>786600</v>
       </c>
       <c r="G10" s="3">
-        <v>666800</v>
+        <v>635600</v>
       </c>
       <c r="H10" s="3">
-        <v>318200</v>
+        <v>303300</v>
       </c>
       <c r="I10" s="3">
-        <v>887100</v>
+        <v>845600</v>
       </c>
       <c r="J10" s="3">
-        <v>663000</v>
+        <v>632000</v>
       </c>
       <c r="K10" s="3">
         <v>455400</v>
@@ -816,25 +816,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1374800</v>
+        <v>1310500</v>
       </c>
       <c r="E12" s="3">
-        <v>341900</v>
+        <v>325900</v>
       </c>
       <c r="F12" s="3">
-        <v>401000</v>
+        <v>382200</v>
       </c>
       <c r="G12" s="3">
-        <v>271900</v>
+        <v>259200</v>
       </c>
       <c r="H12" s="3">
-        <v>268000</v>
+        <v>255500</v>
       </c>
       <c r="I12" s="3">
-        <v>229000</v>
+        <v>218300</v>
       </c>
       <c r="J12" s="3">
-        <v>209600</v>
+        <v>199800</v>
       </c>
       <c r="K12" s="3">
         <v>215900</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>407300</v>
+        <v>388300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -883,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>-1328900</v>
+        <v>-1266700</v>
       </c>
       <c r="H14" s="3">
-        <v>149300</v>
+        <v>142300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -942,25 +942,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32458000</v>
+        <v>30939900</v>
       </c>
       <c r="E17" s="3">
-        <v>7554000</v>
+        <v>7200700</v>
       </c>
       <c r="F17" s="3">
-        <v>10633300</v>
+        <v>10136000</v>
       </c>
       <c r="G17" s="3">
-        <v>7128700</v>
+        <v>6795300</v>
       </c>
       <c r="H17" s="3">
-        <v>8070000</v>
+        <v>7692600</v>
       </c>
       <c r="I17" s="3">
-        <v>6497800</v>
+        <v>6193800</v>
       </c>
       <c r="J17" s="3">
-        <v>4668700</v>
+        <v>4450400</v>
       </c>
       <c r="K17" s="3">
         <v>3474700</v>
@@ -971,25 +971,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7073900</v>
+        <v>-6743100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1322200</v>
+        <v>-1260300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3592900</v>
+        <v>-3424900</v>
       </c>
       <c r="G18" s="3">
-        <v>-971700</v>
+        <v>-926200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1250600</v>
+        <v>-1192100</v>
       </c>
       <c r="I18" s="3">
-        <v>-160300</v>
+        <v>-152800</v>
       </c>
       <c r="J18" s="3">
-        <v>-117400</v>
+        <v>-111900</v>
       </c>
       <c r="K18" s="3">
         <v>-485100</v>
@@ -1013,25 +1013,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-65600</v>
+        <v>-62500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3087700</v>
+        <v>-2943200</v>
       </c>
       <c r="F20" s="3">
-        <v>71800</v>
+        <v>68500</v>
       </c>
       <c r="G20" s="3">
-        <v>1769700</v>
+        <v>1687000</v>
       </c>
       <c r="H20" s="3">
-        <v>196900</v>
+        <v>187700</v>
       </c>
       <c r="I20" s="3">
-        <v>258200</v>
+        <v>246100</v>
       </c>
       <c r="J20" s="3">
-        <v>103400</v>
+        <v>98600</v>
       </c>
       <c r="K20" s="3">
         <v>-118400</v>
@@ -1042,16 +1042,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6256700</v>
+        <v>-5964100</v>
       </c>
       <c r="E21" s="3">
-        <v>-4398000</v>
+        <v>-4192300</v>
       </c>
       <c r="F21" s="3">
-        <v>-3522100</v>
+        <v>-3357300</v>
       </c>
       <c r="G21" s="3">
-        <v>1025800</v>
+        <v>977900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40500</v>
+        <v>38600</v>
       </c>
       <c r="E22" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="F22" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="I22" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K22" s="3">
         <v>2700</v>
@@ -1100,25 +1100,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7180000</v>
+        <v>-6844200</v>
       </c>
       <c r="E23" s="3">
-        <v>-4419300</v>
+        <v>-4212600</v>
       </c>
       <c r="F23" s="3">
-        <v>-3533600</v>
+        <v>-3368400</v>
       </c>
       <c r="G23" s="3">
-        <v>789100</v>
+        <v>752200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1061300</v>
+        <v>-1011600</v>
       </c>
       <c r="I23" s="3">
-        <v>91100</v>
+        <v>86900</v>
       </c>
       <c r="J23" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="K23" s="3">
         <v>-606200</v>
@@ -1129,25 +1129,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="E24" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
-        <v>-11500</v>
+        <v>-11000</v>
       </c>
       <c r="H24" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="I24" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="J24" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K24" s="3">
         <v>-26200</v>
@@ -1187,16 +1187,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7204300</v>
+        <v>-6867400</v>
       </c>
       <c r="E26" s="3">
-        <v>-4435700</v>
+        <v>-4228200</v>
       </c>
       <c r="F26" s="3">
-        <v>-3544300</v>
+        <v>-3378500</v>
       </c>
       <c r="G26" s="3">
-        <v>800700</v>
+        <v>763200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -1216,16 +1216,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7306100</v>
+        <v>-6964400</v>
       </c>
       <c r="E27" s="3">
-        <v>-4467900</v>
+        <v>-4259000</v>
       </c>
       <c r="F27" s="3">
-        <v>-3570000</v>
+        <v>-3403000</v>
       </c>
       <c r="G27" s="3">
-        <v>787800</v>
+        <v>751000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -1361,25 +1361,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>65600</v>
+        <v>62500</v>
       </c>
       <c r="E32" s="3">
-        <v>3087700</v>
+        <v>2943200</v>
       </c>
       <c r="F32" s="3">
-        <v>-71800</v>
+        <v>-68500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1769700</v>
+        <v>-1687000</v>
       </c>
       <c r="H32" s="3">
-        <v>-196900</v>
+        <v>-187700</v>
       </c>
       <c r="I32" s="3">
-        <v>-258200</v>
+        <v>-246100</v>
       </c>
       <c r="J32" s="3">
-        <v>-103400</v>
+        <v>-98600</v>
       </c>
       <c r="K32" s="3">
         <v>118400</v>
@@ -1390,16 +1390,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7306100</v>
+        <v>-6964400</v>
       </c>
       <c r="E33" s="3">
-        <v>-4467900</v>
+        <v>-4259000</v>
       </c>
       <c r="F33" s="3">
-        <v>-3570000</v>
+        <v>-3403000</v>
       </c>
       <c r="G33" s="3">
-        <v>787800</v>
+        <v>751000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -1448,16 +1448,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7306100</v>
+        <v>-6964400</v>
       </c>
       <c r="E35" s="3">
-        <v>-4467900</v>
+        <v>-4259000</v>
       </c>
       <c r="F35" s="3">
-        <v>-3570000</v>
+        <v>-3403000</v>
       </c>
       <c r="G35" s="3">
-        <v>787800</v>
+        <v>751000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -1537,16 +1537,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6342000</v>
+        <v>6045400</v>
       </c>
       <c r="E41" s="3">
-        <v>7104200</v>
+        <v>6771900</v>
       </c>
       <c r="F41" s="3">
-        <v>3810800</v>
+        <v>3632600</v>
       </c>
       <c r="G41" s="3">
-        <v>3427000</v>
+        <v>3266700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1566,16 +1566,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1948600</v>
+        <v>1857500</v>
       </c>
       <c r="E42" s="3">
-        <v>1833300</v>
+        <v>1747500</v>
       </c>
       <c r="F42" s="3">
-        <v>2215100</v>
+        <v>2111500</v>
       </c>
       <c r="G42" s="3">
-        <v>3499700</v>
+        <v>3336000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1595,16 +1595,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1343700</v>
+        <v>1280900</v>
       </c>
       <c r="E43" s="3">
-        <v>1482800</v>
+        <v>1413400</v>
       </c>
       <c r="F43" s="3">
-        <v>1511800</v>
+        <v>1441100</v>
       </c>
       <c r="G43" s="3">
-        <v>2007100</v>
+        <v>1913200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -1653,16 +1653,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>378600</v>
+        <v>360900</v>
       </c>
       <c r="E45" s="3">
-        <v>829200</v>
+        <v>790400</v>
       </c>
       <c r="F45" s="3">
-        <v>647800</v>
+        <v>617500</v>
       </c>
       <c r="G45" s="3">
-        <v>319000</v>
+        <v>304100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1682,16 +1682,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10041900</v>
+        <v>9572200</v>
       </c>
       <c r="E46" s="3">
-        <v>11249400</v>
+        <v>10723300</v>
       </c>
       <c r="F46" s="3">
-        <v>8185600</v>
+        <v>7802700</v>
       </c>
       <c r="G46" s="3">
-        <v>9289000</v>
+        <v>8854500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1711,16 +1711,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3401200</v>
+        <v>3242100</v>
       </c>
       <c r="E47" s="3">
-        <v>1645900</v>
+        <v>1568900</v>
       </c>
       <c r="F47" s="3">
-        <v>4150500</v>
+        <v>3956300</v>
       </c>
       <c r="G47" s="3">
-        <v>3578500</v>
+        <v>3411100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1740,16 +1740,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1356300</v>
+        <v>1292900</v>
       </c>
       <c r="E48" s="3">
-        <v>1425500</v>
+        <v>1358900</v>
       </c>
       <c r="F48" s="3">
-        <v>1761600</v>
+        <v>1679200</v>
       </c>
       <c r="G48" s="3">
-        <v>1595100</v>
+        <v>1520500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1769,16 +1769,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7252400</v>
+        <v>6913200</v>
       </c>
       <c r="E49" s="3">
-        <v>7713600</v>
+        <v>7352800</v>
       </c>
       <c r="F49" s="3">
-        <v>7817400</v>
+        <v>7451800</v>
       </c>
       <c r="G49" s="3">
-        <v>7841100</v>
+        <v>7474300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -1856,16 +1856,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>290600</v>
+        <v>277000</v>
       </c>
       <c r="E52" s="3">
-        <v>721500</v>
+        <v>687800</v>
       </c>
       <c r="F52" s="3">
-        <v>759400</v>
+        <v>723800</v>
       </c>
       <c r="G52" s="3">
-        <v>785300</v>
+        <v>748600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -1914,16 +1914,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22342300</v>
+        <v>21297300</v>
       </c>
       <c r="E54" s="3">
-        <v>22756000</v>
+        <v>21691700</v>
       </c>
       <c r="F54" s="3">
-        <v>22674400</v>
+        <v>21613900</v>
       </c>
       <c r="G54" s="3">
-        <v>23088900</v>
+        <v>22009000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -1969,16 +1969,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700300</v>
+        <v>667500</v>
       </c>
       <c r="E57" s="3">
-        <v>2569100</v>
+        <v>2448900</v>
       </c>
       <c r="F57" s="3">
-        <v>2311700</v>
+        <v>2203500</v>
       </c>
       <c r="G57" s="3">
-        <v>618200</v>
+        <v>589300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
@@ -1998,16 +1998,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1104000</v>
+        <v>1052300</v>
       </c>
       <c r="E58" s="3">
-        <v>1083800</v>
+        <v>1033100</v>
       </c>
       <c r="F58" s="3">
-        <v>1060000</v>
+        <v>1010500</v>
       </c>
       <c r="G58" s="3">
-        <v>1199600</v>
+        <v>1143500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2027,16 +2027,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1762200</v>
+        <v>1679800</v>
       </c>
       <c r="E59" s="3">
-        <v>224600</v>
+        <v>214100</v>
       </c>
       <c r="F59" s="3">
-        <v>215400</v>
+        <v>205300</v>
       </c>
       <c r="G59" s="3">
-        <v>1543800</v>
+        <v>1471600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2056,16 +2056,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3566500</v>
+        <v>3399700</v>
       </c>
       <c r="E60" s="3">
-        <v>3877500</v>
+        <v>3696200</v>
       </c>
       <c r="F60" s="3">
-        <v>3587100</v>
+        <v>3419300</v>
       </c>
       <c r="G60" s="3">
-        <v>3361600</v>
+        <v>3204300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2085,16 +2085,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>245500</v>
+        <v>234000</v>
       </c>
       <c r="E61" s="3">
-        <v>287200</v>
+        <v>273800</v>
       </c>
       <c r="F61" s="3">
-        <v>348000</v>
+        <v>331700</v>
       </c>
       <c r="G61" s="3">
-        <v>277900</v>
+        <v>264900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211300</v>
+        <v>201500</v>
       </c>
       <c r="E62" s="3">
-        <v>233100</v>
+        <v>222200</v>
       </c>
       <c r="F62" s="3">
-        <v>244200</v>
+        <v>232700</v>
       </c>
       <c r="G62" s="3">
-        <v>255700</v>
+        <v>243700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2230,16 +2230,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5980100</v>
+        <v>5700400</v>
       </c>
       <c r="E66" s="3">
-        <v>6323800</v>
+        <v>6028100</v>
       </c>
       <c r="F66" s="3">
-        <v>6075900</v>
+        <v>5791700</v>
       </c>
       <c r="G66" s="3">
-        <v>5577400</v>
+        <v>5316600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>27722200</v>
+        <v>26425600</v>
       </c>
       <c r="G70" s="3">
-        <v>27722200</v>
+        <v>26425600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19821900</v>
+        <v>-18894800</v>
       </c>
       <c r="E72" s="3">
-        <v>-19796000</v>
+        <v>-18870100</v>
       </c>
       <c r="F72" s="3">
-        <v>-15359600</v>
+        <v>-14641200</v>
       </c>
       <c r="G72" s="3">
-        <v>-11815300</v>
+        <v>-11262700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2504,16 +2504,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16362200</v>
+        <v>15596900</v>
       </c>
       <c r="E76" s="3">
-        <v>16432200</v>
+        <v>15663600</v>
       </c>
       <c r="F76" s="3">
-        <v>-11123700</v>
+        <v>-10603400</v>
       </c>
       <c r="G76" s="3">
-        <v>-10210700</v>
+        <v>-9733100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2596,16 +2596,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7306100</v>
+        <v>-6964400</v>
       </c>
       <c r="E81" s="3">
-        <v>-4467900</v>
+        <v>-4259000</v>
       </c>
       <c r="F81" s="3">
-        <v>-3570000</v>
+        <v>-3403000</v>
       </c>
       <c r="G81" s="3">
-        <v>787800</v>
+        <v>751000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>882800</v>
+        <v>841500</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>227800</v>
+        <v>217100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -2812,16 +2812,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1958800</v>
+        <v>-1867200</v>
       </c>
       <c r="E89" s="3">
-        <v>-738200</v>
+        <v>-703700</v>
       </c>
       <c r="F89" s="3">
-        <v>-173600</v>
+        <v>-165500</v>
       </c>
       <c r="G89" s="3">
-        <v>-896400</v>
+        <v>-854400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -2854,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-966700</v>
+        <v>-921500</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-397700</v>
+        <v>-379100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>167200</v>
+        <v>159300</v>
       </c>
       <c r="E94" s="3">
-        <v>44700</v>
+        <v>42600</v>
       </c>
       <c r="F94" s="3">
-        <v>783400</v>
+        <v>746700</v>
       </c>
       <c r="G94" s="3">
-        <v>-294200</v>
+        <v>-280400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -3099,16 +3099,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5139000</v>
+        <v>4898700</v>
       </c>
       <c r="E100" s="3">
-        <v>4050700</v>
+        <v>3861300</v>
       </c>
       <c r="F100" s="3">
-        <v>-255600</v>
+        <v>-243700</v>
       </c>
       <c r="G100" s="3">
-        <v>1501400</v>
+        <v>1431200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3128,16 +3128,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="E101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F101" s="3">
-        <v>-19900</v>
+        <v>-19000</v>
       </c>
       <c r="G101" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3157,16 +3157,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3263800</v>
+        <v>3111200</v>
       </c>
       <c r="E102" s="3">
-        <v>3364500</v>
+        <v>3207200</v>
       </c>
       <c r="F102" s="3">
-        <v>334200</v>
+        <v>318600</v>
       </c>
       <c r="G102" s="3">
-        <v>344700</v>
+        <v>328500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/DIDIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIDIY_QTR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24196800</v>
+        <v>24965100</v>
       </c>
       <c r="E8" s="3">
-        <v>5940400</v>
+        <v>6129000</v>
       </c>
       <c r="F8" s="3">
-        <v>6711100</v>
+        <v>6924200</v>
       </c>
       <c r="G8" s="3">
-        <v>5869100</v>
+        <v>6055500</v>
       </c>
       <c r="H8" s="3">
-        <v>6500500</v>
+        <v>6706900</v>
       </c>
       <c r="I8" s="3">
-        <v>6041000</v>
+        <v>6232800</v>
       </c>
       <c r="J8" s="3">
-        <v>4338400</v>
+        <v>4476200</v>
       </c>
       <c r="K8" s="3">
         <v>2989500</v>
@@ -745,25 +745,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21835400</v>
+        <v>22528700</v>
       </c>
       <c r="E9" s="3">
-        <v>5677100</v>
+        <v>5857400</v>
       </c>
       <c r="F9" s="3">
-        <v>5924500</v>
+        <v>6112600</v>
       </c>
       <c r="G9" s="3">
-        <v>5233500</v>
+        <v>5399700</v>
       </c>
       <c r="H9" s="3">
-        <v>6197200</v>
+        <v>6394000</v>
       </c>
       <c r="I9" s="3">
-        <v>5195400</v>
+        <v>5360300</v>
       </c>
       <c r="J9" s="3">
-        <v>3706500</v>
+        <v>3824200</v>
       </c>
       <c r="K9" s="3">
         <v>2534200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2361400</v>
+        <v>2436400</v>
       </c>
       <c r="E10" s="3">
-        <v>263200</v>
+        <v>271600</v>
       </c>
       <c r="F10" s="3">
-        <v>786600</v>
+        <v>811600</v>
       </c>
       <c r="G10" s="3">
-        <v>635600</v>
+        <v>655800</v>
       </c>
       <c r="H10" s="3">
-        <v>303300</v>
+        <v>312900</v>
       </c>
       <c r="I10" s="3">
-        <v>845600</v>
+        <v>872500</v>
       </c>
       <c r="J10" s="3">
-        <v>632000</v>
+        <v>652000</v>
       </c>
       <c r="K10" s="3">
         <v>455400</v>
@@ -816,25 +816,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1310500</v>
+        <v>1352100</v>
       </c>
       <c r="E12" s="3">
-        <v>325900</v>
+        <v>336200</v>
       </c>
       <c r="F12" s="3">
-        <v>382200</v>
+        <v>394400</v>
       </c>
       <c r="G12" s="3">
-        <v>259200</v>
+        <v>267400</v>
       </c>
       <c r="H12" s="3">
-        <v>255500</v>
+        <v>263600</v>
       </c>
       <c r="I12" s="3">
-        <v>218300</v>
+        <v>225200</v>
       </c>
       <c r="J12" s="3">
-        <v>199800</v>
+        <v>206100</v>
       </c>
       <c r="K12" s="3">
         <v>215900</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>388300</v>
+        <v>400600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -883,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>-1266700</v>
+        <v>-1306900</v>
       </c>
       <c r="H14" s="3">
-        <v>142300</v>
+        <v>146800</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -942,25 +942,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30939900</v>
+        <v>31922300</v>
       </c>
       <c r="E17" s="3">
-        <v>7200700</v>
+        <v>7429300</v>
       </c>
       <c r="F17" s="3">
-        <v>10136000</v>
+        <v>10457800</v>
       </c>
       <c r="G17" s="3">
-        <v>6795300</v>
+        <v>7011100</v>
       </c>
       <c r="H17" s="3">
-        <v>7692600</v>
+        <v>7936900</v>
       </c>
       <c r="I17" s="3">
-        <v>6193800</v>
+        <v>6390500</v>
       </c>
       <c r="J17" s="3">
-        <v>4450400</v>
+        <v>4591700</v>
       </c>
       <c r="K17" s="3">
         <v>3474700</v>
@@ -971,25 +971,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6743100</v>
+        <v>-6957200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1260300</v>
+        <v>-1300300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3424900</v>
+        <v>-3533600</v>
       </c>
       <c r="G18" s="3">
-        <v>-926200</v>
+        <v>-955600</v>
       </c>
       <c r="H18" s="3">
-        <v>-1192100</v>
+        <v>-1229900</v>
       </c>
       <c r="I18" s="3">
-        <v>-152800</v>
+        <v>-157700</v>
       </c>
       <c r="J18" s="3">
-        <v>-111900</v>
+        <v>-115500</v>
       </c>
       <c r="K18" s="3">
         <v>-485100</v>
@@ -1013,25 +1013,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62500</v>
+        <v>-64500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2943200</v>
+        <v>-3036700</v>
       </c>
       <c r="F20" s="3">
-        <v>68500</v>
+        <v>70700</v>
       </c>
       <c r="G20" s="3">
-        <v>1687000</v>
+        <v>1740500</v>
       </c>
       <c r="H20" s="3">
-        <v>187700</v>
+        <v>193600</v>
       </c>
       <c r="I20" s="3">
-        <v>246100</v>
+        <v>253900</v>
       </c>
       <c r="J20" s="3">
-        <v>98600</v>
+        <v>101700</v>
       </c>
       <c r="K20" s="3">
         <v>-118400</v>
@@ -1042,16 +1042,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5964100</v>
+        <v>-6153500</v>
       </c>
       <c r="E21" s="3">
-        <v>-4192300</v>
+        <v>-4325400</v>
       </c>
       <c r="F21" s="3">
-        <v>-3357300</v>
+        <v>-3463900</v>
       </c>
       <c r="G21" s="3">
-        <v>977900</v>
+        <v>1008900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38600</v>
+        <v>39900</v>
       </c>
       <c r="E22" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="G22" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H22" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K22" s="3">
         <v>2700</v>
@@ -1100,25 +1100,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6844200</v>
+        <v>-7061500</v>
       </c>
       <c r="E23" s="3">
-        <v>-4212600</v>
+        <v>-4346400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3368400</v>
+        <v>-3475300</v>
       </c>
       <c r="G23" s="3">
-        <v>752200</v>
+        <v>776100</v>
       </c>
       <c r="H23" s="3">
-        <v>-1011600</v>
+        <v>-1043700</v>
       </c>
       <c r="I23" s="3">
-        <v>86900</v>
+        <v>89600</v>
       </c>
       <c r="J23" s="3">
-        <v>-16100</v>
+        <v>-16700</v>
       </c>
       <c r="K23" s="3">
         <v>-606200</v>
@@ -1129,25 +1129,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="E24" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="F24" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="G24" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="H24" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I24" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J24" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="K24" s="3">
         <v>-26200</v>
@@ -1187,16 +1187,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6867400</v>
+        <v>-7085400</v>
       </c>
       <c r="E26" s="3">
-        <v>-4228200</v>
+        <v>-4362500</v>
       </c>
       <c r="F26" s="3">
-        <v>-3378500</v>
+        <v>-3485800</v>
       </c>
       <c r="G26" s="3">
-        <v>763200</v>
+        <v>787500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -1216,16 +1216,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6964400</v>
+        <v>-7185500</v>
       </c>
       <c r="E27" s="3">
-        <v>-4259000</v>
+        <v>-4394200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3403000</v>
+        <v>-3511100</v>
       </c>
       <c r="G27" s="3">
-        <v>751000</v>
+        <v>774800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -1361,25 +1361,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62500</v>
+        <v>64500</v>
       </c>
       <c r="E32" s="3">
-        <v>2943200</v>
+        <v>3036700</v>
       </c>
       <c r="F32" s="3">
-        <v>-68500</v>
+        <v>-70700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1687000</v>
+        <v>-1740500</v>
       </c>
       <c r="H32" s="3">
-        <v>-187700</v>
+        <v>-193600</v>
       </c>
       <c r="I32" s="3">
-        <v>-246100</v>
+        <v>-253900</v>
       </c>
       <c r="J32" s="3">
-        <v>-98600</v>
+        <v>-101700</v>
       </c>
       <c r="K32" s="3">
         <v>118400</v>
@@ -1390,16 +1390,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6964400</v>
+        <v>-7185500</v>
       </c>
       <c r="E33" s="3">
-        <v>-4259000</v>
+        <v>-4394200</v>
       </c>
       <c r="F33" s="3">
-        <v>-3403000</v>
+        <v>-3511100</v>
       </c>
       <c r="G33" s="3">
-        <v>751000</v>
+        <v>774800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -1448,16 +1448,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6964400</v>
+        <v>-7185500</v>
       </c>
       <c r="E35" s="3">
-        <v>-4259000</v>
+        <v>-4394200</v>
       </c>
       <c r="F35" s="3">
-        <v>-3403000</v>
+        <v>-3511100</v>
       </c>
       <c r="G35" s="3">
-        <v>751000</v>
+        <v>774800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -1537,16 +1537,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6045400</v>
+        <v>6237400</v>
       </c>
       <c r="E41" s="3">
-        <v>6771900</v>
+        <v>6987000</v>
       </c>
       <c r="F41" s="3">
-        <v>3632600</v>
+        <v>3747900</v>
       </c>
       <c r="G41" s="3">
-        <v>3266700</v>
+        <v>3370500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1566,16 +1566,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1857500</v>
+        <v>1916400</v>
       </c>
       <c r="E42" s="3">
-        <v>1747500</v>
+        <v>1803000</v>
       </c>
       <c r="F42" s="3">
-        <v>2111500</v>
+        <v>2178600</v>
       </c>
       <c r="G42" s="3">
-        <v>3336000</v>
+        <v>3441900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1595,16 +1595,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1280900</v>
+        <v>1321600</v>
       </c>
       <c r="E43" s="3">
-        <v>1413400</v>
+        <v>1458300</v>
       </c>
       <c r="F43" s="3">
-        <v>1441100</v>
+        <v>1486900</v>
       </c>
       <c r="G43" s="3">
-        <v>1913200</v>
+        <v>1974000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="3">
-        <v>34400</v>
+        <v>35500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -1653,16 +1653,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>360900</v>
+        <v>372400</v>
       </c>
       <c r="E45" s="3">
-        <v>790400</v>
+        <v>815500</v>
       </c>
       <c r="F45" s="3">
-        <v>617500</v>
+        <v>637100</v>
       </c>
       <c r="G45" s="3">
-        <v>304100</v>
+        <v>313800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1682,16 +1682,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9572200</v>
+        <v>9876200</v>
       </c>
       <c r="E46" s="3">
-        <v>10723300</v>
+        <v>11063800</v>
       </c>
       <c r="F46" s="3">
-        <v>7802700</v>
+        <v>8050500</v>
       </c>
       <c r="G46" s="3">
-        <v>8854500</v>
+        <v>9135700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1711,16 +1711,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3242100</v>
+        <v>3345000</v>
       </c>
       <c r="E47" s="3">
-        <v>1568900</v>
+        <v>1618700</v>
       </c>
       <c r="F47" s="3">
-        <v>3956300</v>
+        <v>4082000</v>
       </c>
       <c r="G47" s="3">
-        <v>3411100</v>
+        <v>3519400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -1740,16 +1740,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1292900</v>
+        <v>1333900</v>
       </c>
       <c r="E48" s="3">
-        <v>1358900</v>
+        <v>1402000</v>
       </c>
       <c r="F48" s="3">
-        <v>1679200</v>
+        <v>1732500</v>
       </c>
       <c r="G48" s="3">
-        <v>1520500</v>
+        <v>1568800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1769,16 +1769,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6913200</v>
+        <v>7132700</v>
       </c>
       <c r="E49" s="3">
-        <v>7352800</v>
+        <v>7586300</v>
       </c>
       <c r="F49" s="3">
-        <v>7451800</v>
+        <v>7688400</v>
       </c>
       <c r="G49" s="3">
-        <v>7474300</v>
+        <v>7711700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -1856,16 +1856,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>277000</v>
+        <v>285800</v>
       </c>
       <c r="E52" s="3">
-        <v>687800</v>
+        <v>709600</v>
       </c>
       <c r="F52" s="3">
-        <v>723800</v>
+        <v>746800</v>
       </c>
       <c r="G52" s="3">
-        <v>748600</v>
+        <v>772300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -1914,16 +1914,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21297300</v>
+        <v>21973600</v>
       </c>
       <c r="E54" s="3">
-        <v>21691700</v>
+        <v>22380400</v>
       </c>
       <c r="F54" s="3">
-        <v>21613900</v>
+        <v>22300200</v>
       </c>
       <c r="G54" s="3">
-        <v>22009000</v>
+        <v>22707900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -1969,16 +1969,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>667500</v>
+        <v>688700</v>
       </c>
       <c r="E57" s="3">
-        <v>2448900</v>
+        <v>2526700</v>
       </c>
       <c r="F57" s="3">
-        <v>2203500</v>
+        <v>2273500</v>
       </c>
       <c r="G57" s="3">
-        <v>589300</v>
+        <v>608000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
@@ -1998,16 +1998,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1052300</v>
+        <v>1085700</v>
       </c>
       <c r="E58" s="3">
-        <v>1033100</v>
+        <v>1065900</v>
       </c>
       <c r="F58" s="3">
-        <v>1010500</v>
+        <v>1042500</v>
       </c>
       <c r="G58" s="3">
-        <v>1143500</v>
+        <v>1179800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2027,16 +2027,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1679800</v>
+        <v>1733100</v>
       </c>
       <c r="E59" s="3">
-        <v>214100</v>
+        <v>220900</v>
       </c>
       <c r="F59" s="3">
-        <v>205300</v>
+        <v>211800</v>
       </c>
       <c r="G59" s="3">
-        <v>1471600</v>
+        <v>1518400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2056,16 +2056,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3399700</v>
+        <v>3507600</v>
       </c>
       <c r="E60" s="3">
-        <v>3696200</v>
+        <v>3813500</v>
       </c>
       <c r="F60" s="3">
-        <v>3419300</v>
+        <v>3527900</v>
       </c>
       <c r="G60" s="3">
-        <v>3204300</v>
+        <v>3306100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2085,16 +2085,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>234000</v>
+        <v>241500</v>
       </c>
       <c r="E61" s="3">
-        <v>273800</v>
+        <v>282500</v>
       </c>
       <c r="F61" s="3">
-        <v>331700</v>
+        <v>342200</v>
       </c>
       <c r="G61" s="3">
-        <v>264900</v>
+        <v>273300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>201500</v>
+        <v>207900</v>
       </c>
       <c r="E62" s="3">
-        <v>222200</v>
+        <v>229200</v>
       </c>
       <c r="F62" s="3">
-        <v>232700</v>
+        <v>240100</v>
       </c>
       <c r="G62" s="3">
-        <v>243700</v>
+        <v>251500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2230,16 +2230,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5700400</v>
+        <v>5881400</v>
       </c>
       <c r="E66" s="3">
-        <v>6028100</v>
+        <v>6219500</v>
       </c>
       <c r="F66" s="3">
-        <v>5791700</v>
+        <v>5975600</v>
       </c>
       <c r="G66" s="3">
-        <v>5316600</v>
+        <v>5485400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>26425600</v>
+        <v>27264700</v>
       </c>
       <c r="G70" s="3">
-        <v>26425600</v>
+        <v>27264700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18894800</v>
+        <v>-19494700</v>
       </c>
       <c r="E72" s="3">
-        <v>-18870100</v>
+        <v>-19469300</v>
       </c>
       <c r="F72" s="3">
-        <v>-14641200</v>
+        <v>-15106100</v>
       </c>
       <c r="G72" s="3">
-        <v>-11262700</v>
+        <v>-11620300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2504,16 +2504,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15596900</v>
+        <v>16092200</v>
       </c>
       <c r="E76" s="3">
-        <v>15663600</v>
+        <v>16161000</v>
       </c>
       <c r="F76" s="3">
-        <v>-10603400</v>
+        <v>-10940100</v>
       </c>
       <c r="G76" s="3">
-        <v>-9733100</v>
+        <v>-10042200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2596,16 +2596,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6964400</v>
+        <v>-7185500</v>
       </c>
       <c r="E81" s="3">
-        <v>-4259000</v>
+        <v>-4394200</v>
       </c>
       <c r="F81" s="3">
-        <v>-3403000</v>
+        <v>-3511100</v>
       </c>
       <c r="G81" s="3">
-        <v>751000</v>
+        <v>774800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>841500</v>
+        <v>868200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>217100</v>
+        <v>224000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -2812,16 +2812,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1867200</v>
+        <v>-1926500</v>
       </c>
       <c r="E89" s="3">
-        <v>-703700</v>
+        <v>-726000</v>
       </c>
       <c r="F89" s="3">
-        <v>-165500</v>
+        <v>-170700</v>
       </c>
       <c r="G89" s="3">
-        <v>-854400</v>
+        <v>-881600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -2854,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-921500</v>
+        <v>-950800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-379100</v>
+        <v>-391100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>159300</v>
+        <v>164400</v>
       </c>
       <c r="E94" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="F94" s="3">
-        <v>746700</v>
+        <v>770400</v>
       </c>
       <c r="G94" s="3">
-        <v>-280400</v>
+        <v>-289300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -3099,16 +3099,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4898700</v>
+        <v>5054200</v>
       </c>
       <c r="E100" s="3">
-        <v>3861300</v>
+        <v>3983900</v>
       </c>
       <c r="F100" s="3">
-        <v>-243700</v>
+        <v>-251400</v>
       </c>
       <c r="G100" s="3">
-        <v>1431200</v>
+        <v>1476600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3128,16 +3128,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79600</v>
+        <v>-82100</v>
       </c>
       <c r="E101" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F101" s="3">
-        <v>-19000</v>
+        <v>-19600</v>
       </c>
       <c r="G101" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3157,16 +3157,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3111200</v>
+        <v>3210000</v>
       </c>
       <c r="E102" s="3">
-        <v>3207200</v>
+        <v>3309000</v>
       </c>
       <c r="F102" s="3">
-        <v>318600</v>
+        <v>328700</v>
       </c>
       <c r="G102" s="3">
-        <v>328500</v>
+        <v>339000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
